--- a/data/trans_orig/P79A3_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P79A3_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>3972</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1182</v>
+        <v>936</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10736</v>
+        <v>9253</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1887154713999295</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05616455368950262</v>
+        <v>0.04444948991324707</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5101121478077209</v>
+        <v>0.4396482973922096</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -762,19 +762,19 @@
         <v>5977</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2998</v>
+        <v>3029</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9068</v>
+        <v>9308</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4748296376922618</v>
+        <v>0.4748296376922617</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2381534735391296</v>
+        <v>0.2406616113670027</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7203385903067872</v>
+        <v>0.7394037217667315</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -783,19 +783,19 @@
         <v>9949</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4835</v>
+        <v>5204</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16557</v>
+        <v>16810</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2957963804621541</v>
+        <v>0.2957963804621542</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1437477167502372</v>
+        <v>0.1547112144825361</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4922552208310143</v>
+        <v>0.499779563309562</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>17075</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10311</v>
+        <v>11794</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19865</v>
+        <v>20111</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8112845286000704</v>
+        <v>0.8112845286000706</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4898878521922785</v>
+        <v>0.5603517026077902</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9438354463104971</v>
+        <v>0.9555505100867528</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -833,19 +833,19 @@
         <v>6611</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3520</v>
+        <v>3280</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9590</v>
+        <v>9559</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5251703623077383</v>
+        <v>0.5251703623077382</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2796614096932128</v>
+        <v>0.2605962782332685</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7618465264608705</v>
+        <v>0.7593383886329974</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>21</v>
@@ -854,19 +854,19 @@
         <v>23686</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17078</v>
+        <v>16825</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28800</v>
+        <v>28431</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7042036195378458</v>
+        <v>0.7042036195378459</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5077447791689849</v>
+        <v>0.500220436690438</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8562522832497617</v>
+        <v>0.8452887855174638</v>
       </c>
     </row>
     <row r="6">
@@ -1000,19 +1000,19 @@
         <v>3712</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1143</v>
+        <v>1228</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6193</v>
+        <v>6202</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5270805077608516</v>
+        <v>0.5270805077608515</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1622349851972949</v>
+        <v>0.1743625778571578</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8792659944699679</v>
+        <v>0.8806489504533385</v>
       </c>
     </row>
     <row r="8">
@@ -1071,19 +1071,19 @@
         <v>3331</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5900</v>
+        <v>5811</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4729194922391484</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.120832957865015</v>
+        <v>0.1193014987745184</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.837782042644253</v>
+        <v>0.8251248877335995</v>
       </c>
     </row>
     <row r="9">
@@ -1473,19 +1473,19 @@
         <v>4669</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1505</v>
+        <v>1604</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10100</v>
+        <v>9997</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1915972259141038</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06175245821665759</v>
+        <v>0.06582226761861502</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4144314047783571</v>
+        <v>0.4102180077773293</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -1494,19 +1494,19 @@
         <v>10419</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6555</v>
+        <v>6798</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13643</v>
+        <v>13669</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5875074923935328</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3696347068214734</v>
+        <v>0.3833272499444576</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7692958389302559</v>
+        <v>0.7707667883795449</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -1515,19 +1515,19 @@
         <v>15088</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9307</v>
+        <v>8891</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22353</v>
+        <v>22148</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3583459435200219</v>
+        <v>0.358345943520022</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2210396880691576</v>
+        <v>0.211155886355124</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5308818833818063</v>
+        <v>0.5260101808418316</v>
       </c>
     </row>
     <row r="17">
@@ -1544,19 +1544,19 @@
         <v>19702</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14271</v>
+        <v>14374</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22866</v>
+        <v>22767</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8084027740858962</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5855685952216431</v>
+        <v>0.5897819922226711</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9382475417833427</v>
+        <v>0.9341777323813852</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -1565,19 +1565,19 @@
         <v>7315</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4091</v>
+        <v>4065</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11179</v>
+        <v>10936</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4124925076064671</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2307041610697441</v>
+        <v>0.2292332116204551</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6303652931785277</v>
+        <v>0.6166727500555425</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -1586,19 +1586,19 @@
         <v>27017</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19752</v>
+        <v>19957</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32798</v>
+        <v>33214</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6416540564799781</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4691181166181936</v>
+        <v>0.4739898191581681</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7789603119308424</v>
+        <v>0.7888441136448763</v>
       </c>
     </row>
     <row r="18">
